--- a/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/lbs.floor.xlsx
+++ b/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/lbs.floor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ADD2A6-675E-764D-B7C2-5CD65195069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E7031E-6247-9149-922F-A186225E871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -227,9 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.ambient</t>
-  </si>
-  <si>
     <t>楼层读取</t>
   </si>
   <si>
@@ -619,6 +618,10 @@
   </si>
   <si>
     <t>f2377293-bf56-4c8e-81d4-3277814a40d1</t>
+  </si>
+  <si>
+    <t>resource.lbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -893,28 +896,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -927,6 +912,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1294,129 +1297,129 @@
     <row r="1" spans="1:7">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="30" customFormat="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" s="24" customFormat="1">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1">
+      <c r="A3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" s="30" customFormat="1">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:7" s="24" customFormat="1">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="30" customFormat="1">
-      <c r="A4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:7" s="24" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="30" customFormat="1">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:7" s="24" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="30" customFormat="1">
-      <c r="A6" s="13" t="s">
+      <c r="D6" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="24" customFormat="1">
+      <c r="A7" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="30" customFormat="1">
-      <c r="A7" s="13" t="s">
+      <c r="C7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1">
+      <c r="A8" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="30" customFormat="1">
-      <c r="A8" s="13" t="s">
+      <c r="C8" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="30" customFormat="1">
-      <c r="A9" s="13" t="s">
+      <c r="C9" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1">
+      <c r="A10" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="30" customFormat="1">
-      <c r="A10" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>183</v>
+      <c r="C10" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1429,11 +1432,11 @@
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
@@ -1477,114 +1480,114 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1596,15 +1599,15 @@
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
@@ -1666,7 +1669,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="18" t="str">
         <f t="shared" ref="B29:B43" si="0">A49</f>
@@ -1677,13 +1680,13 @@
         <v>b9356aee-b4fb-4024-934f-345bd939d6d0</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>29</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1706,13 +1709,13 @@
         <v>471bbdb7-3835-406e-a50e-afcda18466eb</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>31</v>
@@ -1724,7 +1727,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1735,13 +1738,13 @@
         <v>0eb93897-52fd-4920-b241-b7042c1c7b73</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>33</v>
@@ -1753,7 +1756,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1764,13 +1767,13 @@
         <v>3439d99a-3b9b-467b-9f8f-4e520ee22fe4</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>35</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1793,13 +1796,13 @@
         <v>b9356aee-b4fb-4024-934f-345bd939d6d0</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>36</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1822,13 +1825,13 @@
         <v>0eb93897-52fd-4920-b241-b7042c1c7b73</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>37</v>
@@ -1840,7 +1843,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1851,13 +1854,13 @@
         <v>3439d99a-3b9b-467b-9f8f-4e520ee22fe4</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>38</v>
@@ -1869,7 +1872,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1880,13 +1883,13 @@
         <v>c3197efd-8611-4817-b6f5-91bbf0ca95f0</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>39</v>
@@ -1898,7 +1901,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1909,13 +1912,13 @@
         <v>c3197efd-8611-4817-b6f5-91bbf0ca95f0</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>40</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1938,13 +1941,13 @@
         <v>c3197efd-8611-4817-b6f5-91bbf0ca95f0</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>41</v>
@@ -1956,7 +1959,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1967,13 +1970,13 @@
         <v>8d453cf0-5c80-4407-997f-06bf4cc8a662</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>42</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1996,13 +1999,13 @@
         <v>8d453cf0-5c80-4407-997f-06bf4cc8a662</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>43</v>
@@ -2014,7 +2017,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2025,13 +2028,13 @@
         <v>b9356aee-b4fb-4024-934f-345bd939d6d0</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>44</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2054,13 +2057,13 @@
         <v>b9356aee-b4fb-4024-934f-345bd939d6d0</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>45</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2083,13 +2086,13 @@
         <v>b9356aee-b4fb-4024-934f-345bd939d6d0</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>57</v>
@@ -2124,15 +2127,15 @@
       <c r="B46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
@@ -2194,22 +2197,22 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G49" s="15">
         <v>1</v>
@@ -2219,22 +2222,22 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G50" s="15">
         <v>4</v>
@@ -2244,22 +2247,22 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G51" s="15">
         <v>8</v>
@@ -2269,22 +2272,22 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G52" s="15">
         <v>12</v>
@@ -2294,22 +2297,22 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G53" s="15">
         <v>1</v>
@@ -2319,22 +2322,22 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G54" s="15">
         <v>8</v>
@@ -2344,22 +2347,22 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G55" s="15">
         <v>12</v>
@@ -2369,22 +2372,22 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G56" s="15">
         <v>3</v>
@@ -2394,22 +2397,22 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G57" s="15">
         <v>3</v>
@@ -2419,22 +2422,22 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G58" s="15">
         <v>11</v>
@@ -2444,22 +2447,22 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G59" s="15">
         <v>5</v>
@@ -2469,22 +2472,22 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G60" s="15">
         <v>3</v>
@@ -2494,22 +2497,22 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G61" s="15">
         <v>1</v>
@@ -2519,22 +2522,22 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G62" s="15">
         <v>1</v>
@@ -2544,22 +2547,22 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="G63" s="15">
         <v>1</v>
